--- a/report-generator/src/main/resources/by-project.xlsx
+++ b/report-generator/src/main/resources/by-project.xlsx
@@ -32,8 +32,10 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="projects" var="project" lastCell="A1”)</t>
+          <t xml:space="preserve">jx:area(lastCell = "E6")
+jx:each(items="projects" var="project" lastCell="E6")</t>
         </r>
       </text>
     </comment>
@@ -44,9 +46,23 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="project.developers" var="developer" lastCell="E2)
-jx:each(items="developer.cards" var="card" lastCell="E2)</t>
+          <t xml:space="preserve">jx:each(items="project.developers" var="developer" lastCell="E2")
+jx:each(items="developer.cards" var="card" lastCell="E2")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="project.developers" var="developer" lastCell="B5")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">${project.name}</t>
   </si>
@@ -73,6 +89,18 @@
   </si>
   <si>
     <t xml:space="preserve">${card.description}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By-developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${developer.name} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${developer.duration}</t>
   </si>
 </sst>
 </file>
@@ -82,11 +110,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,13 +132,32 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DA7D8"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FF7DA7D8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,12 +194,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,6 +228,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF7DA7D8"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF87D1D1"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -172,16 +296,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.76"/>
@@ -192,22 +316,49 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">SUM(D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
